--- a/itemized/1424_trygg_ely_itemized_windows_2024-01-14.xlsx
+++ b/itemized/1424_trygg_ely_itemized_windows_2024-01-14.xlsx
@@ -1,18 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27126"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\deniselive\Documents\johnson-family-cabin\itemized\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04A042E2-8EDD-4BF0-96AA-1311A9DEF57B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10125" yWindow="495" windowWidth="25380" windowHeight="16440" tabRatio="500"/>
+    <workbookView xWindow="1560" yWindow="495" windowWidth="24105" windowHeight="15705" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MARVIN WINDOWS" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'MARVIN WINDOWS'!$A$1:$I$15</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'MARVIN WINDOWS'!$A$1:$I$16</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -21,6 +27,7 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
         <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -32,14 +39,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="35">
   <si>
     <t>item</t>
   </si>
   <si>
-    <t>openable?</t>
-  </si>
-  <si>
     <t>yes</t>
   </si>
   <si>
@@ -106,9 +110,6 @@
     <t>Ground BR</t>
   </si>
   <si>
-    <t>total cost</t>
-  </si>
-  <si>
     <t>7.375% tax</t>
   </si>
   <si>
@@ -127,16 +128,28 @@
     <t>line cost</t>
   </si>
   <si>
-    <t>BHJ Rerference</t>
-  </si>
-  <si>
     <t>Ct</t>
+  </si>
+  <si>
+    <t>Ground LR</t>
+  </si>
+  <si>
+    <t>Ground Entry S side</t>
+  </si>
+  <si>
+    <t>Total Estimated Cost</t>
+  </si>
+  <si>
+    <t>opens?</t>
+  </si>
+  <si>
+    <t>BHJ Reference</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
@@ -235,7 +248,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -244,25 +257,50 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="27">
@@ -628,288 +666,316 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="91" zoomScaleNormal="91" zoomScalePageLayoutView="150" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="19.625" style="2" customWidth="1"/>
     <col min="2" max="2" width="19.125" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="14.125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="8.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="13.5" style="4" customWidth="1"/>
+    <col min="5" max="5" width="3.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="8.875" style="3" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B1"/>
       <c r="C1"/>
-      <c r="D1"/>
-    </row>
-    <row r="3" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+      <c r="D1" s="1"/>
+    </row>
+    <row r="3" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C4" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D4" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="E4" s="4">
-        <v>1</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="H4" s="8">
+      <c r="E4" s="12">
+        <v>1</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="H4" s="13">
         <v>3115.2</v>
       </c>
-      <c r="I4" s="8">
+      <c r="I4" s="13">
         <f>E4*H4</f>
         <v>3115.2</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
+    <row r="5" spans="1:9" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="E5" s="12">
+        <v>1</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="H5" s="13">
+        <v>3115.2</v>
+      </c>
+      <c r="I5" s="13">
+        <f t="shared" ref="I5:I11" si="0">E5*H5</f>
+        <v>3115.2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="7" t="s">
+      <c r="C6" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="4">
-        <v>1</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="H5" s="8">
-        <v>3115.2</v>
-      </c>
-      <c r="I5" s="8">
-        <f t="shared" ref="I5:I10" si="0">E5*H5</f>
-        <v>3115.2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" s="5">
-        <v>1</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="G6" s="5"/>
-      <c r="H6" s="8">
+      <c r="E6" s="12">
+        <v>1</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G6" s="12"/>
+      <c r="H6" s="13">
         <v>763.2</v>
       </c>
-      <c r="I6" s="8">
+      <c r="I6" s="13">
         <f t="shared" si="0"/>
         <v>763.2</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="7" t="s">
+    <row r="7" spans="1:9" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="D7" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7" s="5">
-        <v>1</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="G7" s="5"/>
-      <c r="H7" s="8">
+      <c r="E7" s="12">
+        <v>1</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G7" s="12"/>
+      <c r="H7" s="13">
         <v>1108.8</v>
       </c>
-      <c r="I7" s="8">
+      <c r="I7" s="13">
         <f t="shared" si="0"/>
         <v>1108.8</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="7" t="s">
+    <row r="8" spans="1:9" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" s="12">
+        <v>1</v>
+      </c>
+      <c r="F8" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="E8" s="5">
-        <v>1</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="G8" s="5"/>
-      <c r="H8" s="8">
+      <c r="G8" s="12"/>
+      <c r="H8" s="13">
         <v>1108.8</v>
       </c>
-      <c r="I8" s="8">
+      <c r="I8" s="13">
+        <f t="shared" ref="I8" si="1">E8*H8</f>
+        <v>1108.8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" s="12">
+        <v>1</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G9" s="12"/>
+      <c r="H9" s="13">
+        <v>1108.8</v>
+      </c>
+      <c r="I9" s="13">
         <f t="shared" si="0"/>
         <v>1108.8</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="7" t="s">
+    <row r="10" spans="1:9" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="D10" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="E9" s="5">
-        <v>1</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="H9" s="8">
+      <c r="E10" s="12">
+        <v>1</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="G10" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="H10" s="13">
         <v>1158.4000000000001</v>
       </c>
-      <c r="I9" s="8">
+      <c r="I10" s="13">
         <f t="shared" si="0"/>
         <v>1158.4000000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="5">
-        <v>1</v>
-      </c>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="8">
-        <f>0.07375*I9</f>
+    <row r="11" spans="1:9" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12">
+        <v>1</v>
+      </c>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="13">
+        <f>0.07375*I10</f>
         <v>85.432000000000002</v>
       </c>
-      <c r="I10" s="8">
+      <c r="I11" s="13">
         <f t="shared" si="0"/>
         <v>85.432000000000002</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="9">
-        <f>SUM(I4:I10)</f>
-        <v>10455.031999999999</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="B14" s="10"/>
+    <row r="12" spans="1:9" s="18" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" s="15"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="17">
+        <f>SUM(I4:I11)</f>
+        <v>11563.831999999999</v>
+      </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="B15" s="11"/>
+      <c r="A15" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15" s="5"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A14:B14"/>
     <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
